--- a/CountryData/Philippines/Philippines_Workbook.xlsx
+++ b/CountryData/Philippines/Philippines_Workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Philippines/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patti\OneDrive\Documents\ElledMap\CountryData\Philippines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4B78AEDA-077A-4675-B348-AA0734EA3050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D30A1C3-0B89-4963-B66E-D00ED5CE681B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Philippines_Popup" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Philippines</t>
   </si>
@@ -79,10 +79,14 @@
     <t>Analysis and Case Studies:</t>
   </si>
   <si>
-    <t>Relevant Initiatives:</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">April 2021 – </t>
     </r>
     <r>
@@ -99,7 +103,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Camba and Singh, (2020) – </t>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Camba and Singh, (2020) –</t>
     </r>
     <r>
       <rPr>
@@ -110,11 +121,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>The Role of Domestic Policy Coalitions in Extractive Industries' Governance: Disentangling the Politics of “Responsible Mining” in the Philippines</t>
+      <t xml:space="preserve"> The Role of Domestic Policy Coalitions in Extractive Industries' Governance: Disentangling the Politics of “Responsible Mining” in the Philippines</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Quisumbing Torres (2015) – </t>
     </r>
     <r>
@@ -131,6 +149,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Philippines Senate Economic Planning Office (2013) – </t>
     </r>
     <r>
@@ -147,7 +172,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Canare and Mendoza (2013) – </t>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Canare and Mendoza (2013) –</t>
     </r>
     <r>
       <rPr>
@@ -158,14 +190,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Revenue Sharing in Mining: Insights from the Philippine Case</t>
+      <t xml:space="preserve"> Revenue Sharing in Mining: Insights from the Philippine Case</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -297,13 +329,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -342,12 +367,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -398,6 +417,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -580,7 +614,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -702,32 +736,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -740,6 +748,21 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -789,67 +812,70 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="29" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="29" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1207,11 +1233,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H29"/>
+      <selection sqref="A1:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,201 +1246,219 @@
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="22">
         <v>108116615</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="20"/>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="21">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="21">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B7" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="8" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+    <row r="13" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+    <row r="14" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+    <row r="15" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+    </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>13</v>
+      <c r="A18" s="16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="19" t="s">
         <v>18</v>
       </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="10"/>
+      <c r="A25" s="8"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="A26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:8" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="11"/>
-    </row>
-    <row r="33" spans="1:2" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A33:B33"/>
+  <mergeCells count="2">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=PH"/>
-    <hyperlink ref="B5" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=PH"/>
-    <hyperlink ref="B6" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=PH"/>
-    <hyperlink ref="B7" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking"/>
-    <hyperlink ref="B8" r:id="rId5" display="https://eiti.org/philippines"/>
-    <hyperlink ref="A11" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/174/export-basket"/>
-    <hyperlink ref="A14" r:id="rId7" display="https://lawphil.net/statutes/repacts/ra1991/ra_7076_1991.html"/>
-    <hyperlink ref="A15" r:id="rId8" display="https://www.lawphil.net/statutes/repacts/ra1995/ra_7942_1995.html"/>
-    <hyperlink ref="A16" r:id="rId9" display="https://mgb.gov.ph/images/stories/CDAO-Final.pdf"/>
-    <hyperlink ref="A19" r:id="rId10" display="https://www.reuters.com/business/energy/philippines-lifts-nine-year-old-ban-new-mines-boost-revenues-2021-04-15/"/>
-    <hyperlink ref="A22" r:id="rId11" display="https://onlinelibrary.wiley.com/doi/full/10.1002/eet.1905"/>
-    <hyperlink ref="A23" r:id="rId12" display="https://www.bakermckenzie.com/-/media/files/insight/publications/2015/02/primer-on-the-philippine-minerals-industry/files/read-publication/fileattachment/bk_manila_primermineralsindustry_2015.pdf"/>
-    <hyperlink ref="A24" r:id="rId13" display="http://legacy.senate.gov.ph/publications/PB 2013-12 - Mining_Policy Brief_final_revised_010614.pdf"/>
-    <hyperlink ref="A25" r:id="rId14" display="https://www.scirp.org/pdf/ME_2013080914181618.pdf"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=PH" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=PH" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=PH" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/philippines" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/174/export-basket" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A21" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A23" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A24" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <webPublishItems count="1">
-    <webPublishItem id="5567" divId="Philippines_Workbook_5567" sourceType="range" sourceRef="A1:H29" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Philippines\Philippines_Popup.htm" autoRepublish="1"/>
+    <webPublishItem id="3265" divId="Philippines_Workbook_3265" sourceType="range" sourceRef="A1:I25" destinationFile="C:\Users\patti\OneDrive\Documents\ElledMap\CountryData\Philippines\Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>